--- a/Team-Data/2007-08/11-5-2007-08.xlsx
+++ b/Team-Data/2007-08/11-5-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>16</v>
@@ -789,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -965,7 +1032,7 @@
         <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>25</v>
@@ -974,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>16</v>
@@ -983,10 +1050,10 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>1</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1314,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1490,13 +1557,13 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>19</v>
@@ -1517,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1538,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -1576,130 +1643,130 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.3</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>73.8</v>
+        <v>72.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.505</v>
+        <v>0.518</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.378</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.882</v>
+        <v>0.851</v>
       </c>
       <c r="R7" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="S7" t="n">
-        <v>30.3</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="n">
         <v>28</v>
@@ -1708,25 +1775,25 @@
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>26</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>6.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>8</v>
@@ -1875,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
@@ -1893,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
@@ -2057,13 +2124,13 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>19</v>
@@ -2078,10 +2145,10 @@
         <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-16.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2257,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2304,160 +2371,160 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>81.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.438</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.272</v>
+        <v>0.283</v>
       </c>
       <c r="O11" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P11" t="n">
-        <v>24.3</v>
+        <v>25.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.763</v>
+        <v>0.724</v>
       </c>
       <c r="R11" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>33.7</v>
       </c>
       <c r="T11" t="n">
-        <v>43.8</v>
+        <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
         <v>12</v>
       </c>
       <c r="AS11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU11" t="n">
         <v>13</v>
       </c>
-      <c r="AT11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>15</v>
-      </c>
       <c r="AV11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>1</v>
@@ -2597,7 +2664,7 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
@@ -2624,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
@@ -2949,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
@@ -2958,7 +3025,7 @@
         <v>28</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>5</v>
@@ -3149,13 +3216,13 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>30</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3170,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>22</v>
@@ -3310,7 +3377,7 @@
         <v>24</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -3340,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3768,7 @@
         <v>14</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>21</v>
@@ -3713,13 +3780,13 @@
         <v>4</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH19" t="n">
         <v>2</v>
@@ -3868,7 +3935,7 @@
         <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>1</v>
@@ -4071,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>12</v>
@@ -4092,7 +4159,7 @@
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC20" t="n">
         <v>2</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -4235,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>2.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
@@ -4417,13 +4484,13 @@
         <v>3</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4584,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-1</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-12.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -4975,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4993,7 +5060,7 @@
         <v>28</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-17</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
@@ -5133,7 +5200,7 @@
         <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>30</v>
@@ -5142,13 +5209,13 @@
         <v>30</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5312,10 +5379,10 @@
         <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>2</v>
@@ -5330,7 +5397,7 @@
         <v>18</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>10</v>
@@ -5342,7 +5409,7 @@
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5354,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-12.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>22</v>
@@ -5533,7 +5600,7 @@
         <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>14.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5697,13 +5764,13 @@
         <v>27</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5879,13 +5946,13 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5897,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="BC30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-13.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
@@ -6061,13 +6128,13 @@
         <v>4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>3</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-5-2007-08</t>
+          <t>2007-11-05</t>
         </is>
       </c>
     </row>
